--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
   <si>
     <t>ModuleName</t>
   </si>
@@ -234,24 +234,15 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
     <t>04-05-2024</t>
   </si>
   <si>
     <t>04-05-2024 05:29:49 PM</t>
   </si>
   <si>
-    <t>ET163</t>
-  </si>
-  <si>
     <t>ET164</t>
   </si>
   <si>
-    <t>ET196</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -264,34 +255,34 @@
     <t>00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>09-05-2024</t>
-  </si>
-  <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>09-05-2024 02:01:24 PM</t>
-  </si>
-  <si>
-    <t>09-05-2024 02:06:08 PM</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_DTBeforeMinutes</t>
-  </si>
-  <si>
-    <t>10-05-2024</t>
-  </si>
-  <si>
-    <t>13-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
-    <t>ET278</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20-07-2024</t>
+  </si>
+  <si>
+    <t>23-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2700</t>
+  </si>
+  <si>
+    <t>ET2701</t>
+  </si>
+  <si>
+    <t>ET2702</t>
+  </si>
+  <si>
+    <t>ET_DTBeforeMinutes</t>
+  </si>
+  <si>
+    <t>22-07-2024</t>
+  </si>
+  <si>
+    <t>25-07-2024 10:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -344,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -367,6 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -796,13 +788,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -837,7 +829,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -846,10 +838,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -885,7 +877,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -896,20 +888,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>89</v>
+      <c r="AG2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1052,13 +1044,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1093,7 +1085,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1102,10 +1094,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1141,7 +1133,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1155,16 +1147,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1192,6 +1184,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.26953125"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
@@ -1297,13 +1290,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1338,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1347,10 +1340,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1386,7 +1379,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1400,19 +1393,19 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1573,13 +1566,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1614,7 +1607,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1623,10 +1616,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.91666666666666663</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1662,7 +1655,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1676,16 +1669,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
